--- a/aeri2014_data_reconciled.xlsx
+++ b/aeri2014_data_reconciled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F194D2-C21B-4639-AB60-EFC337A31C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860819E-5315-46F0-81EB-895F54CDEDAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="396">
   <si>
     <t>ID Number</t>
   </si>
@@ -213,9 +208,6 @@
     <t>Rutgers University</t>
   </si>
   <si>
-    <t xml:space="preserve"> Paper Session: Archival Standards</t>
-  </si>
-  <si>
     <t>Exploring Archival Standards within the Sociology of Knowledge</t>
   </si>
   <si>
@@ -652,9 +644,6 @@
   </si>
   <si>
     <t>Over the past two years, the Emerging Archival Scholars Program (EASP) has recruited minority students at the undergraduate and graduate levels to consider undertaking doctoral education focusing in Archival Studies. Our goal has been to stimulate and begin to nurture the growth of a new and more diverse generation of scholars who are versed in interdisciplinary research that addresses issues in Archival Studies, broadly conceived. This plenary will present the views of past and current EASP participants on issues of diversity and archives from each their perspectives.</t>
-  </si>
-  <si>
-    <t>http://www.ischool.pitt.edu/aeri2014/forms/AERI_2014_Program.pdf</t>
   </si>
   <si>
     <t>Concurrent</t>
@@ -1457,6 +1446,15 @@
   </si>
   <si>
     <t>[No title in program.]</t>
+  </si>
+  <si>
+    <t>EASP Wrap-Up Session</t>
+  </si>
+  <si>
+    <t>EASP participants will provide feedback on their experiences at AERI 2014 and discuss future career goals.</t>
+  </si>
+  <si>
+    <t>http://www.ischool.pitt.edu/aeri2014/forms/AERI_2014_Program.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2014_Program.pdf</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1565,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1591,6 +1589,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1948,11 +1958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1998,10 +2008,10 @@
         <v>2014001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -2010,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -2018,8 +2028,8 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>209</v>
+      <c r="I2" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2039,16 +2049,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2068,16 +2078,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2097,16 +2107,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2117,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
@@ -2126,16 +2136,16 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -2146,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2155,16 +2165,16 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2184,16 +2194,16 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -2204,7 +2214,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
@@ -2213,16 +2223,16 @@
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -2242,16 +2252,16 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
@@ -2271,16 +2281,16 @@
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2291,7 +2301,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
@@ -2300,16 +2310,16 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2329,16 +2339,16 @@
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2349,7 +2359,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -2358,16 +2368,16 @@
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2375,10 +2385,10 @@
         <v>2014014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -2387,16 +2397,16 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2404,10 +2414,10 @@
         <v>2014015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -2416,16 +2426,16 @@
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2436,7 +2446,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -2445,16 +2455,16 @@
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2474,16 +2484,16 @@
         <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2494,7 +2504,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>55</v>
@@ -2503,16 +2513,16 @@
         <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -2532,16 +2542,16 @@
         <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="343.2" x14ac:dyDescent="0.3">
@@ -2554,23 +2564,23 @@
       <c r="C21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2578,28 +2588,28 @@
         <v>2014021</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2607,28 +2617,28 @@
         <v>2014022</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2636,28 +2646,28 @@
         <v>2014023</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2665,28 +2675,28 @@
         <v>2014024</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2694,28 +2704,28 @@
         <v>2014025</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2723,28 +2733,28 @@
         <v>2014026</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2752,28 +2762,28 @@
         <v>2014027</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2781,28 +2791,28 @@
         <v>2014028</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="156" x14ac:dyDescent="0.3">
@@ -2810,19 +2820,19 @@
         <v>2014029</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>9</v>
@@ -2830,8 +2840,8 @@
       <c r="H30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>209</v>
+      <c r="I30" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2839,28 +2849,28 @@
         <v>2014030</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2868,28 +2878,28 @@
         <v>2014031</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2897,28 +2907,28 @@
         <v>2014032</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2926,28 +2936,28 @@
         <v>2014033</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2955,28 +2965,28 @@
         <v>2014034</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2984,28 +2994,28 @@
         <v>2014035</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3013,28 +3023,28 @@
         <v>2014036</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -3042,28 +3052,28 @@
         <v>2014037</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3071,28 +3081,28 @@
         <v>2014038</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3100,28 +3110,28 @@
         <v>2014039</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3129,28 +3139,28 @@
         <v>2014040</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3158,28 +3168,28 @@
         <v>2014041</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3187,28 +3197,28 @@
         <v>2014042</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -3216,28 +3226,28 @@
         <v>2014043</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -3245,28 +3255,28 @@
         <v>2014044</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3274,28 +3284,28 @@
         <v>2014045</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -3303,19 +3313,19 @@
         <v>2014046</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>9</v>
@@ -3323,8 +3333,8 @@
       <c r="H47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>209</v>
+      <c r="I47" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -3332,28 +3342,28 @@
         <v>2014047</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -3361,28 +3371,28 @@
         <v>2014048</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3390,28 +3400,28 @@
         <v>2014049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -3419,28 +3429,28 @@
         <v>2014050</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
@@ -3448,28 +3458,28 @@
         <v>2014051</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3477,28 +3487,28 @@
         <v>2014052</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3506,28 +3516,28 @@
         <v>2014053</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3535,28 +3545,28 @@
         <v>2014054</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3564,28 +3574,28 @@
         <v>2014055</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3593,28 +3603,28 @@
         <v>2014056</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3622,28 +3632,28 @@
         <v>2014057</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="234" x14ac:dyDescent="0.3">
@@ -3651,28 +3661,28 @@
         <v>2014058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3680,28 +3690,28 @@
         <v>2014059</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3709,28 +3719,28 @@
         <v>2014060</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3738,28 +3748,28 @@
         <v>2014061</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -3767,19 +3777,19 @@
         <v>2014062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>9</v>
@@ -3787,8 +3797,8 @@
       <c r="H63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>209</v>
+      <c r="I63" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3796,28 +3806,28 @@
         <v>2014063</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3825,28 +3835,28 @@
         <v>2014064</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3854,28 +3864,28 @@
         <v>2014065</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -3883,28 +3893,28 @@
         <v>2014066</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3912,28 +3922,28 @@
         <v>2014067</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3941,28 +3951,28 @@
         <v>2014068</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3970,28 +3980,28 @@
         <v>2014069</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F70" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3999,28 +4009,28 @@
         <v>2014070</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4028,28 +4038,28 @@
         <v>2014071</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4057,28 +4067,28 @@
         <v>2014072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
@@ -4086,28 +4096,28 @@
         <v>2014073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4115,28 +4125,28 @@
         <v>2014074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4144,28 +4154,28 @@
         <v>2014075</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4173,28 +4183,28 @@
         <v>2014076</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -4202,19 +4212,19 @@
         <v>2014077</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>9</v>
@@ -4222,8 +4232,8 @@
       <c r="H78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>209</v>
+      <c r="I78" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4231,28 +4241,28 @@
         <v>2014078</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="G79" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="H79" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4260,28 +4270,28 @@
         <v>2014079</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4289,28 +4299,28 @@
         <v>2014080</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4318,28 +4328,28 @@
         <v>2014081</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="G82" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4347,28 +4357,28 @@
         <v>2014082</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4376,28 +4386,28 @@
         <v>2014083</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="G84" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4405,28 +4415,28 @@
         <v>2014084</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4434,28 +4444,28 @@
         <v>2014085</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="G86" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4463,28 +4473,28 @@
         <v>2014086</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4492,28 +4502,28 @@
         <v>2014087</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
@@ -4521,28 +4531,28 @@
         <v>2014088</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="234" x14ac:dyDescent="0.3">
@@ -4550,28 +4560,28 @@
         <v>2014089</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4579,28 +4589,28 @@
         <v>2014090</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4608,28 +4618,28 @@
         <v>2014091</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -4637,28 +4647,28 @@
         <v>2014092</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4666,28 +4676,28 @@
         <v>2014093</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4695,28 +4705,28 @@
         <v>2014094</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4724,28 +4734,28 @@
         <v>2014095</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4753,28 +4763,28 @@
         <v>2014096</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4782,28 +4792,28 @@
         <v>2014097</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -4811,28 +4821,28 @@
         <v>2014098</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -4840,28 +4850,28 @@
         <v>2014099</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="G100" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4869,28 +4879,28 @@
         <v>2014100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -4898,37 +4908,61 @@
         <v>2014101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E102" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>2014102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>209</v>
+      <c r="G103" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/aeri2014_data_reconciled.xlsx
+++ b/aeri2014_data_reconciled.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860819E-5315-46F0-81EB-895F54CDEDAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C1C550-F6F5-E147-A6D8-6177532AA033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="29380" windowHeight="20720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+  </definedNames>
   <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -763,12 +771,6 @@
 A social news and entertainment site, Reddit is a curated list of links to news articles, videos, images, and other web-based materials. The site maintains submitted materials and discussion forums linked to these materials in which users comment on and discuss the posted items. Though each contributor logs in using a unique user name, her account remains anonymous unless she chooses to identify herself. Contributors earn “karma” (points) for their posts and comments, comments that are wholly open to the public. Conversations related to the management of pornography often appear—both in- and out-of-context—in discussion forums. In these conversations, issues related to PIM and archival management invariably emerge, even if contributors may not recognize them as such. This paper will cover topics such as evolving personal management practices related to digital as opposed to physical content, overcoming educational boundaries in order to maintain these collections, and discussions of attitudes related to these being “sensitive” as opposed to “typical” materials.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specialized programs in moving image preservation have professionalized the field of film archiving over the last fifteen years. What was previously a skill gained through apprenticeship is now one requiring a graduate degree and participation in professional organizations. This has significantly benefited this subfield of archiving by crafting a set of common knowledge assuring employers that graduates of these programs are competently trained. However, it runs the risk of shutting off the occupation of moving image archiving from individuals who have gained skills by other means and alienating communities that do not participate in graduate education.
-To consider this issue of disciplinary boundaries and participatory archiving in relation to film preservation this paper examines the practice of private film collecting, where individuals collect motion pictures, of various genres, on photochemical film stock. Film collecting has, in one form or another, been an ongoing activity since the origins of cinema and continues today in the post-film era of digital film production and preservation. It has been the shadow practice of institutional moving image archiving, offering new directions for the field – Henri Langlois’ creation of the Cinémathèque Française in 1935, Rick Prelinger’s focus on ephemeral films in the 1990s – while being seen as a source of piracy and uncontrollable cinephilia. With the end of film prints and the rise of a significantly more virulent form of illegal distribution through DVD and online piracy, film collectors have begun to go public as film preservationists. Individual collectors have received preservation grants from the National Film Preservation Foundation or crowdfunded digitization projects through Kickstarter; David Pearce’s recent report on the state of silent film preservation records how a small yet significant percentage of extant silent films exist only with private collectors.
-While being careful not to valorize a practice that at its extreme became secretive and possessive, this paper approaches film collectors as organic intellectuals for the purpose of reconsidering assumptions about the proper formation and implementation of institutional film archiving. It applies theories of the participatory archive from scholars such as Isto Huvila to the field of film archiving. How do film collectors, as a nonprofessional affinity group, practice film archiving differently than professional archivists? Should institutional film archives merely look at private film collectors as a source for rare prints or can the approaches of film collectors expand professional methods? For example, and though this is an ever changing target, what is the proper balance between access and preservation for archival films? How can institutional film archives balance an impulse to become more open to community involvement with a very understandable concern about protecting quickly degrading moving image artifacts? With the continuing challenge of limited budgets and a move by some large institutions to divest of analog holdings after digitization, does a more distributed form of archiving, where private individuals continue to protect media artifacts actually provide a more inclusive and sustainable model?
-</t>
-  </si>
-  <si>
     <t>Nestled within Ann Cvetkovich’s groundbreaking, largely theoretical and metaphorical exploration of queer archives in An Archive of Feelings are some “actually existing archives” created by LGBT grassroots organizations, such as the Lesbian Herstory Archives and the ONE National Gay and Lesbian Archives. Cvetkovich cautions us to remember these LGBT grassroots archives’ queer tactics in the wake of LGBT and queer studies popularization and the subsequent creation of institutionalized LGBT information collections. Yet, as new LGBT archives proliferate and already existing LGBT archives continue to evolve, it is also important to develop a more nuanced understanding of LGBT grassroots archives and how they have changed over time, queerly or not.
 Founded in 1973 as a repository for the gay liberation newspaper The Body Politic, the Canadian Lesbian and Gay Archives is one of the largest LGBT archives in the world and remains primarily volunteer-based and entirely autonomous from other institutions and archives. Drawing from the CLGA’s newsletters from 1977 to 1995, this paper traces the organization’s changing orientation towards history and historicizing including: the figures and events the archive perceived as historically relevant, the historical methods and tactics the archive promoted and engaged in, and how the archive engaged with history as a scholarly discipline.
 The CLGA newsletters reflect that the organization became increasingly depoliticized and distanced from history-making over time, partly because the archive separated from The Body Politic after police raids on both organizations and partly because the archive’s growth led to a turn inwards, or, a focus on internal logistics and mainstream acceptance over broader historical engagement. For example, in the earliest issue of the newsletter in 1977 boldly stated: “where does one begin to search out such history? The answer is simply everywhere.” By issue eleven in 1995, however, gay history’s seeming overabundance had become a problem for the CLGA and the newsletter warned that “the rapid growth of the holdings, changing technology, and the increasingly diverse demands of researchers...have placed pressures on volunteers and on our funding base.”
@@ -793,9 +795,6 @@
   </si>
   <si>
     <t xml:space="preserve">Access to public records is a foundational pillar of democracies, dependent upon strong archival institutions at all levels of government. My dissertation examines the recent expansion of public-private partnerships involving US state archives and their effects on citizens’ access to digitized materials. It focuses on the ways in which government archives and libraries in US states and territories engage with the private sector on digitization project for records such as state census, birth, death, agriculture, land ownership and use, and other events central to life in a democracy. This increase in partnerships involving publicly-funded cultural heritage institutions presents a research opportunity. The implementation and effects of these partnerships have not been documented and incorporated into the archival research community beyond the level of individual case studies. Through a mixed-methods social science approach, this project seeks to understand how these partnerships form, how they are negotiated, managed, and how they end. It further examines how digitization through partnerships affects public access to records. The results draw upon interviews with individuals working in both the public and private sector who are involved with negotiation and management of partnerships as well as a survey that combines original data with historical data collected by the Council of State Archivists (COSA). In this presentation, I present preliminary results from the study, focusing primarily on a set of interviews with employees of private sector firms and on the survey data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 1919, Kafka’s parable, Before the Law, presented an analogy of the relationship between the individual and the state, which is characterised by an imbalance of power arising from what, in economics, after Akerlof’s 1970 paper The Market for Lemons: Quality Uncertainty and the Market Mechanism, is called ‘information asymmetry’, where one party in an interaction has more accurate or complete information than the other. In Kafka’s parable, ‘the man from the country’ allows himself to be denied access to the law by, firstly, legitimising the law by attempting to access it, secondly, legitimising the gatekeeper’s authority by accepting his prohibition to enter the open door on the basis of his claim to authority and suggestion that more powerful gatekeepers wait inside. The veracity of the gatekeeper’s authority and the reality of what is behind the door are unknown to the man. Evidence that the protection of information – the maintenance of information asymmetry - is a common means by which states, companies and individuals protect (or project) power over others is easily to be found in studies in the fields of sociology, political science and continental philosophy, inter alia. Histories of Freedom of Information in Britain are rich with observations of bureaucratic resistance to the release of information. In 2011, the Open Government Partnership (OGP) was established as a vehicle to support and promote transparent and accountable government internationally. The discourse around the OGP suggests a widespread interest in redressing the imbalance of power between governments and people, with a focus on service delivery and the protection of individual rights. The movement towards government openness has spurred new approaches to promoting government transparency and called into question the effectiveness of existing approaches, such as Freedom of Information. However, the persistence of the use of pre-existing secrecy and security measures has not been examined in this context. Despite the high profile of the openness movement, very little attention has been given to the laws, policies and practices that continue to be used to restrict access to information, for instance Official Secrets legislation, the Lord Chancellor’s Security and Intelligence Instrument, the Defence Notice (D-Notice) system (official requests not to publish or broadcast on matters of national security), protective marking policies, and established practices on the closure of government files (such as the 30 year rule). These impediments to access are unknown to most people seeking information from government. In what ways are they still used to limit access to information and how effective are Freedom of Information and other openness measures while these impediments exist? </t>
   </si>
   <si>
     <t xml:space="preserve">In late 2013, The Guardian began publishing a series of leaked documents, given to them by a former contractor for the National Security Agency, Edward Snowden. A frenzy ensued, and media outlets were saturated with attempts to understand and interpret both the documents and their consequence for publics both within and outside of the United States. One of the initial revelations was the existence of PRISM, a massive data gathering and surveillance program. Exposed through a series of internally circulating PowerPoint slides, the program reached beyond public borders to include corporate metadata and infrastructure. The slides effectively pushed metadata as both category and content into the public sphere. This sudden appearance of metadata requires persistent definitional work within a multiplicity of contexts, but the most common deferral is the colloquialism "data about data." However, the most staunch defenders of the PRISM program rely on a definition of metadata that leaves us with a paradox. Somehow metadata is simultaneously not content and therefore implicitly a subject of no import on an individual level as well as a valuable source of intelligence worthy of propping up an expensive and now scandalous mass surveillance program. Metadata in this instance is being collected as a specific manner of evidence, produced as part of larger intelligence gathering activities, justified by its relationship to a set of networks devoted to safeguard from terrorist activities. Metadata as evidence however, is neither settled or obvious. In order to begin to understand metadata's current evidentiary value, we must set it in motion within the context of historical-juridical definitions of evidence that make up the foundations of evidentiary value itself. Employing Carlo Ginzburg's concept of "evidential paradigms" and archival theory regarding value, this paper explores what an evidential paradigm of metadata might look like. In his construction of "evidential paradigms," Ginzburg uses psychoanalysis, art criticism and fiction to bring an emergent paradigm of evidence that permeated and defined much of the nineteenth and twentieth centuries. This paper will similarly employ a range of cultural products including fictional representations, legal precedent and rhetorics of "big data.” </t>
@@ -882,32 +881,12 @@
 This presentation will outline the theoretical background of the research, and will discuss the methods to be employed. This is ongoing research pertaining to my dissertation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Data sharing and reuse in the sciences has been a topic of growing attention over the last several years. This attention stems from changes that are occurring within scientific practices driven by the data deluge (Bell, Hey, &amp; Szalay, 2009; Hey &amp; Trefethen, 2003), fourth paradigm data-intensive science (Hey, Tansley, &amp; Tolle, 2009), and changes in journal and grant agency policies (National Institutes of Health, 2003; National Science Foundation, 2010). The sharing of data provides the ability to extract additional value from data, avoid reproducing research, enables researchers to ask new questions of existing data, and advance the state of science in general (Borgman, 2012). These potential opportunities of data sharing and reuse have placed pressure on the scientific community and funding agencies to provide infrastructure solutions for the changes occurring in scientific practice 
-To address the above, in 2007 the U.S. National Science Foundation announced a request for proposals for Sustainable Digital Data Preservation and Access Network Partners (DataNet). The DataNet Partners were created to develop long-term sustainable data infrastructures, interoperable data preservation and access, and cyberinfrastructure capabilities (National Science Foundation, 2006). The Data Observation Network for Earth (DataONE), one of the initial DataNet Partners, provides cyberinfrastructure for open, persistent, robust, and secure access to well-described and easily discovered earth science observational data” (DataONE, 2013). Scientists participating in DataONE are able to deposit, search, and reuse data available through the various DataONE tools. 
-The majority of studies specific to DataONE have addressed: the organization and the infrastructure, specific tools that the DataONE has created, and the DataONE community.  Additionally, the majority of data sharing literature have addressed: general reasons why scientists should share data, journal and grant policies that influence data sharing, behavioral aspects that influence data sharing, and have been conducted in the biological sciences. As there have been few evaluations of the DataONE, it is timely to evaluate the cyberinfrastructure progress. Furthermore, as the DataONE focuses on earth science data, this provides an environment for studying data sharing within the earth sciences. The proposed research recognizes specific gaps in the literature: (1) the need to evaluate the DataONE cyberinfrastructure progress, (2) the need for studying how this infrastructure impacts data sharing, and (3) the need for studying sharing in the earth sciences.  
-From the above research problem, specific research questions have been developed including:  
-•	Within the DataONE environment, what infrastructure and interoperability factors facilitate or inhibit data sharing and reuse? 
-•	Within the DataONE – ONEMercury, which results are deemed relevant for reuse? What properties of these data and metadata facilitate or inhibit reuse? 
-In order to address the above, the researcher has proposed a mixed method approach including a review of transaction logs of the DataONE search interface – ONEMercury, a quasi-experimental study, a survey of the DataONE community asking them about their sharing and reuse activities, and follow up intensive interviews.  This paper presentation will provide an overview of the research problem, research questions, methodology and proposed time-line for the researcher’s planned dissertation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This case study is an exploratory study that examined the United Nations Operation in the Congo (UNUC). This study looked at various genres of communication such as: cables, memos, telex, telegraph, lettersoutgoing correspondence, and incoming correspondence that the UNUC used as the medium of communication to manage and organize in the field. This research study applied JoAnne Yates’s framework of genres in Control through Communication: The Rise of System in American Management and several theorists. Genres could be stretched to “nonliterary discourse to refer to types of communication that have similar formats and purposes” (Yates 1989, p. 288). Yates’ definition of genres indicated that a genre could be stretched to “nonliterary discourse to refer to types of communication” (Yates 1989, p. 288), which ties in with various genres of communication applied in this study. Communicating across distance could be difficult, especially, when communicating across the globe. The UNUC in the Congo communicated from New York, and across Europe to Congo [in African] during the Congo war from 1948 to 1973. UNUC used several genres of communication to overcome the barriers in distance communication and carry out the organizational and managerial procedures. This study used observation and content analysis methods to observe, review and analyze several genres of incoming and outgoing correspondences of UNUC Officer–in-Charge Sture Linner’s cables from 1961-1962 to identify various communications that the UNUC used in the field in Congo. UNUC Officer–in-Charge Sture Linner’s cables from 1961- 1962 fond S-0604 were reviewed at the UN Archives Records Managements Sections (UNARMS) in New York City U.S.A.  
 According to the findings of this study 80% of cable genres including Top Secret cables were major medium of communication used by UNUC and stakeholders in the field on administrative, political and financial issues. UNUC and Chief of Defense used 20% genre memos on arm shipments, immigration, aircraft safety, and internal communication. </t>
   </si>
   <si>
     <t xml:space="preserve">Over the last few decades practicing archivists and archival studies scholars have begun the vitally important work of expanding the archival field in order to critically address and document a more diverse set of social and cultural concerns that better reflect the world around us. Though significant progress has been made in opening conversations in the field about concerns including race, gender, class, and other issues of social equity and justice there are significant gaps remaining to be addressed in terms of turning these notions into new and innovative epistemologies for archival studies. My paper will address these gaps by introducing concepts, practices, and frameworks from affect studies into the conversation. This work will open up new theoretical and practical possibilities and develop new frameworks in the archival field that better reflect a broader social consciousness and underdocumented realms of human experience. 
 The study of affects, “those visceral forces beneath, alongside, or generally other than conscious knowing that can serve to drive us toward movement, toward thought,” and ever- changing forms of relation has become a burgeoning area of interdisciplinary scholarly inquiry in recent years. In service of the development of new epistemologies and methodological toolkits I will introduce the context, terms, and critical emphases of affect studies to the theoretical, professional and cultural components of archival discourse. Drawing on theoretical and applied literature on affects from anthropology, cultural, gender, queer, and critical ethnic studies my paper will begin by introducing affect studies and its critical texts to a new audience. The theories, applications, and broader concepts presented in my paper will serve three significant purposes. First, to demonstrate clearly and effectively the compatibility between affect studies and the literature, foundations, and debates within archival discourse. Second, it will examine the important interventions that affect studies can make to the ways in which archives and ancillary information types and domains are studied, documented, and taught in both academia and professional practices. I will use affect studies to illustrate the need for an archives that contains and is shaped by affects. Traditional archives and their records offer insufficient means for documenting the significance of the affective concerns of identity, place, spirituality, love, intimacy, sexuality, trauma, and activism to human experience. Additionally, the radical possibilities opened by exposing the affective experiences of using archives and of doing archival work will be examined. Finally, introducing affect studies into the archival field is an integral part of reinventing the field to create spaces for a critical social consciousness as part of working towards achieving the cultural, memory, and accountability missions of our field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although extensive work has been undertaken at national and international levels addressing the role of archives and recordkeeping in tribunals and reconciliation efforts in the aftermath of wars and other violent conflicts, little research within the archival field itself addresses or seeks to understand the ongoing impact of archives and recordkeeping on the immediate lives of individuals and communities seeking to recover and establish transparency after such conflicts. Nor has research looked at any specific implications there might be for records, recordkeeping and archives in regions historically dominated by or recovering from ethnically and religiously oriented divisions and strife, and how these might manifest themselves within records, metadata and recordkeeping practices. My research addresses these lacks, examining the agency and affect of records and archives on individual lives in Croatia (and by extension, in the diaspora of those who left the region) in the aftermath of the Yugoslav Wars. It takes Akhil Gupta’s theory of structural violence and extends it to situations in which bureaucratic recordkeeping perpetrates violence in situations of ethnic and religious divisions, often long after any physical conflict has ceased. In concert with Gupta’s ideas, it is hard to point to a single agent or system that perpetuates structural violence precisely because it is systemic. Perhaps more important in terms of mitigating it, the structural violence can also be transparent to those who are not its victims.  
-This paper will report on ethnographic and archival components of this research that are exploring: 
-•	the effects of records, recordkeeping, recordkeeping metadata and archives on people’s daily lives • how people feel about records and recordkeeping processes 
-•	the “stories” people tell about records:  
-o	Are there common themes and tropes?  
-o	Are there certain kinds of records that are particularly central to these stories? 
-•	how people react to the classifications and assumptions imposed by records  
-•	are people aware of “codes” embedded in records as they are in social relations? If so, do they overtly read for, or subconsciously respond to them? 
-•	what, if any contact have these individuals had with archives? What feelings or reactions did such contact engender? </t>
   </si>
   <si>
     <t xml:space="preserve">My research involves a multiple case study that looks at the trajectories and strategic actions at four community-led lesbian and gay archives. These are the Canadian Lesbian and Gay Archives (Toronto), the ONE National Gay and Lesbian Archives (Los Angeles), the June L. Mazer Lesbian Archives (West Hollywood), and the Lesbian Herstory Archives (Brooklyn). This project uses social movement theory to investigate the how these organizations were founded, the ways in which they have sustained themselves over the years, and the strategies they have used to acquire and manage limited resources. The study of lesbian and gay archives (and, indeed, all community-based activist archives) is enriched by social movement theory because this framework highlights the ways in which these organizations manifest social movement ideologies and goals.  
@@ -917,20 +896,6 @@
     <t xml:space="preserve">A story of contemporary architecture is one of making things – making places, making buildings, making drawings, making models, making decisions. It is a messy story with a lot of actors, only some of who are architects. Architecture is a social practice that extends beyond the walls of any firm, to collaborators within the field, to clients with particular expectations, to government officials making decisions about building code, to tool designers aiding in design and construction processes, to the artifacts created through the application of those tools. Each of these actors plays a role in the history of architecture and the construction of the built environment.  
 In this paper, I will focus on the artifacts that are created through the everyday activities of an architectural firm – drawings, models, specifications, contracts, spreadsheets, writings, membership documentation, sketches, and notes, to name a few – as the material culture of practice. Architects construct knowledge and communicate their expertise through such artifacts, which can tell stories about the architect’s vision; the design iterations of the development team; working relationships among architects, clients and collaborators; and decisions made throughout the process of design and building. These artifacts are not yet records; it has not yet been determined that they have enduring value. But judgments take place everyday about what to keep from the negotiations of architectural practice. Making informed decisions about which artifacts to preserve requires understanding how they are made and what their roles are in everyday practice. I am operating from the position that architectural records are valuable sources of information that document the built (and unbuilt) environment and the social history of the communities in which they are created. 
 Drawing on my own ethnographic research, theory from science and technology studies, human-computer interaction, sociology, and computer supported collaborative work, and studies on the archival preservation of architectural records, I am working to develop a research methodology for investigating the complexity of architectural practice. By examining architectural practice as a socio-technical framework, it is possible to make a contribution to preservation literature that takes into account the changes in architecture. Close situated study of contemporary architectural practices can further illuminate the role of artifacts in the messy doing and making of architecture. The socio-technical nature of building culture means that the artifacts to be preserved are being created via complex arrangements of people and technologies. It is not merely the technological changes that need to be addressed in order to preserve architectural records, but the social environment in which they are created, if we are to document architectural practice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the field of archival studies, there has been growth in the literature related to born-digital archiving.  
-Notable informational and educational resources include the “AIMS Born-Digital Collections” report, SAA’s Digital Archives Specialist (DAS) curriculum and the BitCurator project.  One commonality shared by these projects is an emphasis on donation-based collecting, where an archives or special collection needs to confront obsolete born-digital media or file formats included with a donation.  Although this problem too confronts institutional archives, it is only a small facet of the entire born digital archiving challenge.  This paper will explore the challenges to born-digital institutional archiving through the case study of a major international art museum.   
-Born-digital institutional digital archiving refers to the task of selecting, preserving, and providing access to the born-digital documentation created by an institution with historic and legal value.  In this case study, the researcher studied the born-digital archiving practices of a major international art museum headquartered in New York from September 2013 through January 2014 with the goal of helping them plan for a born digital archives.  The researcher studied the digital record keeping practices at the institution using three data sources: 
-1)	Staff: The researcher interviewed staff in 26 departments with 81 individuals attending an interview session.  During these interviews, he asked questions related to the locations and formats of electronic records with permanent value, which can be identified using the institution’s records retention schedule. 
-2)	Network File Storage: The researcher used the tool TreeSize to study the types of files and the age of files stored in departmental network share drives. 
-3)	Media in Archival Storage: The archives contains approximately 7,000 cubic feet of paper records, with some media such as floppy disks contained within these boxes.  He searched processed and unprocessed collections using inventories and finding aids available. 
-From studying these three sources of born-digital records, the researcher identified a number of challenges to institutional born-digital archiving.  A small selection of these challenges is outlined below: 
-1.	Digital records are stored primarily on network file storage.  Staff generally do not transfer electronic records to the archives because of lack of established procedures, workflows or infrastructures for doing so.   
-2.	Because electronic records do not occupy valuable physical workspace, staff have little motivation to identify records for permanent retention based on the departmental records retention schedule.   
-3.	Some departments with extensive collections of older records view these collections as “archives” of their department’s work, and exhibit a somewhat proprietary attachment to them.  However, they are not sure if they can be accessed because they may originate in obsolete file formats.   
-4.	Many departments have records in obsolete file formats (e.g., WordPerfect, Quark XPress).  However, since these files are rarely if ever referenced and are not barriers to completing work, this issue is not a priority for any department.  
-5.	Additional challenges related to unexpected file formats, removable media, email, social media, cloud services, web archives, and specialized database software will be discussed. </t>
   </si>
   <si>
     <t xml:space="preserve">The widespread use of social media platforms for storing and accessing digital photographs raises a number of questions regarding the roles and responsibilities for managing and preserving image collections held within the commercial online environment. Accepted by members of social media services as repositories, these online treasure-troves of visual culture are actually for-profit businesses that rely on cloud computing infrastructure to provide seemingly limitless storage and rapid provisioning 24/7. In recent years the archival and library community has published a number of reports aimed at providing guidance to archivists and librarians managing born-digital materials (e.g., images, documents and video) held on aging media (e.g., CDs and hard drives). These reports highlight the risks of bit rot (i.e., files deteriorating over time), obsolescence (i.e., hardware, software and physical media are no longer in use and cannot be accessed), and accidental alteration or deletion during management and preservation activities. This paper explores the next generation of digital photographs collections, which are not stored on physical media. Technological innovations that support the convergence of digital cameras into mobile (e.g. smartphones) and wearable (e.g., Google glass) devices with connectivity to social media platforms including Flickr and Facebook are introducing new methods for creating, sharing and storing digital photographs, which present new challenges for professional librarians and archivists. Firstly, uploading and downloading digital photographs to popular social media platforms removes digital image metadata, such as photographer name, date(s), and copyright. Information professionals may be unable to establish provenance and integrity without image metadata. Secondly, through Terms of Use agreements, social media platform providers define their right to terminate accounts, control the future use of site content, and modify these terms at any time. Information professionals may be unable to acquire and preserve collections that are controlled by a third-party, or deleted due to service interruption and bankruptcy. If individuals and organizations continue to place their trust in social media platforms as repositories for visual culture, then information professionals should assess the risks and benefits.  
@@ -994,10 +959,6 @@
 This paper highlights the approaches and perspectives employed in a collaborative project between the Smithsonian Institution and the University of Maryland College of Information Studies. The project aims to identify important considerations in assessing the value and impact of digitization of ethnographic collections. This paper presents preparatory work for this project and is organized in four parts. The first describes the profound changes happening within the LAM sector. In particular, I examine the effects brought about by the expanding role of digitization and online access as fundamental institutional functions of heritage repositories. The second provides an overview of the current literature on impact and assessment that address the issue of valuing digitized collections. Third, I outline our ongoing collaborative research project that examines cases of ethnographic digitization projects in seven cultural heritage institutions. Finally, I conclude by offering “five considerations” to frame efforts for assessing the impact of value of digitized ethnographic collections. </t>
   </si>
   <si>
-    <t xml:space="preserve">In this paper I seek to address the problems of the technological challenges in the preservation of digital documents. As an answer I draw attention to the need for digital heritage preservation—that is, preservation of the objects, documentation, and knowledge that make up the digital infrastructure that has been conventionally presented as so difficult to preserve. I will argue that focus on preserving digitallyencoded objects without attention to preserving their context of creation implies a considerable degree of blindness to the fact that digital technology is a cultural phenomenon, too. If we assume that we can preserve other cultural manifestations, there is no reason why we cannot preserve digital technology, and thereby be enabled to preserve the objects that are supported by digital technology, as well, much as the preservation of ancient woodworking tools enables us to more fully understand the carvings made with them, or as the rediscovery of ancient paint formulations assists us in preserving works of art.  
-I will discuss three aspects of this suggestion. I question the thinking that considers manufactured objects as unworthy of preservation by discussing the culture of creation around engineered and manufactured objects. I question the refusal to recognize a literate tradition of technological documentation as a literature by exploring the rhetoric and poetics of technology documentation. I question the rejection of the tacit knowledge of computer engineers as less important than craft skills or oral tradition by discussing the craft performance of trained engineers. Recognition of digital heritage preservation as itself a cultural phenomenon, characterized by its own mode of production and trajectory of development, can make a significant difference in the preservation of digital documents—and especially of their contexts of origin— over time. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This workshop will contribute to the development of the archival studies curriculum by introducing the topic of information culture (that is, the values accorded to information, and attitudes towards it, specifically within organizational contexts).  The objectives of the workshop are twofold.  Firstly it will demonstrate the utility of the concept of information culture as the basis for the development and promotion of sound recordkeeping practices.  Secondly it will stimulate reflection on the content and scope of education for records management, and explore the appropriateness of this in today’s highly flexible and dynamic working environment. 
 Traditional records management education largely focuses on systems, processes and techniques required to achieve recordkeeping outcomes.  Generally this approach largely ignores or at best superficially acknowledges the fundamental cultural issues encountered when attempting to implement these systems, processes and techniques in workplaces.  The information culture perspective takes people, the employees of the organisation, into account, and facilitates the understanding and diagnosis of the cultural dimensions of organizations as socially constructed entities.    
 The workshop will explore the components of a diagnostic model, the Information Culture Framework (ICF).  The ICF is underpinned by three key ideas:  recordkeeping informatics, soft systems methodology and rhetorical genre.  The model distinguishes three levels of factors, which will be used as the basis to structure the workshop.  
@@ -1049,22 +1010,6 @@
   <si>
     <t xml:space="preserve">In early September of 2013, Linus Torvalds the lead developer of the Linux Kernel posted an announcement on Google+ saying that his hard drive had just died. Beyond a simple reminder of the materiality of digital systems, the death of this particular hard drive is significant because it contained one of the most important pieces of software in the world. Linus however was not concerned, “this is not a huge disaster, in that git is distributed and even if I can’t make it come back, I lost perhaps three pull requests that I hadn’t pushed out yet...” Because the linux kernel is developed on top of a robust software development infrastructure, very little work was lost and the whole matter was more of an inconvenience than anything else. The revision control system built and used by Torvalds for managing the linux kernel is a system called “git,” which tracks the historical development of source code and automatically generate meaningful metadata. Such systems are built to be highly distributed performing a LOCKSS-like function by design. Revision control systems preserve a series of “commits” or units of code larger than the moment-tomoment save-file, but smaller than a software release. These units encapsulate a body of code, a new function, a bug fix, a period of work, locally meaningful to programmers participating in a shared development practice. The history of all commits, that is the history of a project’s development, are stored and saved within source code repositories. Furthermore, repositories can be pushed, pulled, cloned, forked, and merged, allowing for cooperative, yet temporally and spatially distributed, production. The repository’s “provenance” (I use this term loosely) is captured, along with metadata, by these tools used to negotiate distributed collaboration. This means, in effect, principles of good archival practice are built into the tools and best practices within the OSS community. 
 The Open Source Software (OSS) developer community is rich ecosystem of practices, discourses, formal and informal ontologies, and tools. Within this ecosystem exists robust infrastructures for the production, publication, distribution, and preservation of source code. By infrastructure I mean not only hardware and software of networks and developer tools, but also the social practices and institutions of Agile programming and the Apache foundation. Embedded within these infrastructures are tools, habits, and practices deeply relevant to archival research. The design of OSS infrastructure embed assumptions about how source code should be produced, released, and preserved. My paper investigates the infrastructures of OSS development to see how archival concepts like provenance, access, and preservation are understood within the OSS community and explore opportunities for a two-way dialog between the OSS and archives research communities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are considerable interoperability challenges for archival systems that need to endure through time and space, providing consistent and complete evidential access to archive materials (Evans, McKemmish, &amp; Reed, 2009).  Addressing the interoperability of archival systems within a socially, politically, disciplinary, and technically heterogeneous, divided and contested landscape has been identified as a societal grand challenge of our age (Gilliland &amp; McKemmish, 2012).  
-From the earliest days of the World Wide Web, the potential for interoperable archival systems has been recognised (Sherratt, 1996).  More recently, this concept has been refined and articulated as a distributed Archival Commons, comprising a federated network of archives with the generation and association of “links between objects using accepted Web standards”.  Such a space would “allow users to engage with archival materials as they pursue their own needs regardless of repository or institution” (Anderson &amp; Allen, 2009).  This interoperability has been identified as a core principle that should be upheld by public domain archival information services (McCarthy &amp; Evans, 2012). 
-Previous Masters-level research investigated a web-based API for archival system interoperability in the context of the Australian Series System, based upon a standard metadata schema of entities, relationships, and elements, together with an ontological resolution mechanism. This research exposed areas in which conceptual and representational recordkeeping and archival standards could be improved, particularly where they have been conceived for ensuring compliance at the expense of encouraging interoperability. From an organisational perspective, there are structural and budgetary barriers to progressing interoperability initiatives for community access. 
-Moving forward, a wide-ranging investigation of archival systems interoperability, from theoretical, ontological, and practical perspectives, can be framed as a number of research questions – some of which are: 
-•	What standard metadata schema is necessary and sufficient to support community access to 
-	archives? How should the reference model API be evolved over time?  	 
-•	How should relationships and events be modelled in an interoperable manner? How is the provenance of assertions (e.g. about relationships and events) from difference sources to be represented and managed? 
-•	How should traceability and reproducibility be achieved in the meshing of archival data from multiple sources?  
-•	How should authentication and authorisation be modelled and managed within interoperable archival systems, particularly with respect to access rights that may change over space and time.  
-•	What are the implications for born-digital records for archival systems interoperability? What does mediated co-creation of records mean for identity and evidentiality. 
-•	What are the requirements for read/write interoperability in order to support participative archives activities – for example, tagging, annotation, and contribution of archive material? 
-•	What user interfaces will support appropriate mental models for community discovery and access of archival records? Similarly, what interfaces would be useful for archive metadata diagnostics? 
-•	What is the path (or paths) that an institution should follow to fully participate in federated archives in terms of achieving technical, organisational, and social levels of interoperability?  
-This paper will identify and expand on these questions and discuss research approaches that may be taken to begin to address them. </t>
   </si>
   <si>
     <t xml:space="preserve">During the past decade, there has been an increasing interest in “social justice” in the archival community. As part of this larger movement, Wendy Duff, Andrew Flinn, David Wallace, and Karen Suurtamm recently published an article entitled “Social Justice Impacts of Archives: A Preliminary Investigation” which explores archivesʼ potential to have a social justice impact. Ultimately this article offers an initial framework for evaluating the social justice impact and archives, and asks that members of the archival community begin to further test their model, and related models, to more deeply understand the relationship between archives and social justice. Consequently, this paper aims to further engage in and add to the growing body of literature looking at the relationship between archives and social justice through further testing Duff et. al.ʼs framework. Currently, the framework developed by Duff et. al. has only been applied to mainstream archives. With this in mind, this paper shares findings from further applications of the Duff et. al. framework to learn more about its effectiveness and how it might be improved through applying it to a new area of study: community archives. 
@@ -1123,9 +1068,6 @@
     <t>Amelia Acker</t>
   </si>
   <si>
-    <t>The Mobile Forensic Imagination: Ephemeral Messaging Apps, Telephony Metadata, and Born- Networked Records</t>
-  </si>
-  <si>
     <t>Poster Session</t>
   </si>
   <si>
@@ -1282,17 +1224,6 @@
   <si>
     <t>This poster will mainly describe my dissertation proposal, which includes purpose of the study, significance of the study, important concepts employed, and research design, with some preliminary findings.
 Data reuse is the term referring to the secondary use of data – that is, not for its original purpose, but for studying new problems. Sharing and reusing data might not yet be the norm in every discipline, but it has become a major concern in many scientific disciplines. Assessing data and finding trustworthy data is an important part of the data reuse process, as data plays a vital role in research and is the basis of all scientific research. Influenced by emerging discussion around data reuse and in light of the importance of trust in data reuse, this dissertation study explores why and how data reusers trust data that are generated by other researchers, using content analysis and in-depth, semi-structured interviews as primary research methods. By employing purposive sampling, a total of 30- 35 participants (10 to 12 in education, sociology, and public health – three disciplines that have reuse cultures) will be recruited for this study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The poster that I would like to design will present my research in its early stages. My experience with archives both professionally and personally has centred on Indigenous Australian records.
-My PhD research ‘Visualising Country: Archiving Virtual 3D Models’ is attached to the Monash Country Lines Archive (MCLA) which assists Indigenous Australian communities in the animation of stories that combine their history, knowledge, poetry, songs, performance and language to provide material for intergenerational knowledge sharing and learning. This is achieved through the use of world-class 3D animation to assist the sharing and preservation of knowledge and stories.
-Throughout the MCLA project both the MCLA team and community have expressed concern about the preservation and future access of the material not used in the final animation.
-The aim of my research is to design and develop an online interactive archive to enable Indigenous communities to access and use 3D models of Australian landscapes (terrains, trees and vertebrate fauna) to create virtual cultural worlds that: 1. Is intergenerational in its appeal and usability 2. Easily customised to individual community needs 3. Upholds archival principles both Archival Science and Indigenous community.
-While the research is specifically aimed at the access and use of the 3D models, dependent on the findings of what the partner communities want from the archive, the system may need to be flexible enough to include other material associated with the partnerships.
-I hope to examine what are the specific cultural, social, functional and technical requirements for an online archive of virtual 3D models of Australian terrain, fauna and flora. In doing so, explore the concept of a sustainable living archive that reflects community protocols and archival principles through the use of innovative information technologies.
-My research will be adopting systems development as a research method within a participatory action research framework. Systems Development as a research method in an action research framework allows me to explore the interface between theoretical concepts and their practical realisation, including the interplay with community needs and information technology capabilities.
-I hope to demonstrate my passion for archives and commitment to respectful research.
-</t>
   </si>
   <si>
     <t>University of Illinois</t>
@@ -1456,6 +1387,80 @@
   <si>
     <t>http://www.ischool.pitt.edu/aeri2014/forms/AERI_2014_Program.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2014_Program.pdf</t>
   </si>
+  <si>
+    <t>The Mobile Forensic Imagination: Ephemeral Messaging Apps, Telephony Metadata, and Born-Networked Records</t>
+  </si>
+  <si>
+    <t>Specialized programs in moving image preservation have professionalized the field of film archiving over the last fifteen years. What was previously a skill gained through apprenticeship is now one requiring a graduate degree and participation in professional organizations. This has significantly benefited this subfield of archiving by crafting a set of common knowledge assuring employers that graduates of these programs are competently trained. However, it runs the risk of shutting off the occupation of moving image archiving from individuals who have gained skills by other means and alienating communities that do not participate in graduate education.
+To consider this issue of disciplinary boundaries and participatory archiving in relation to film preservation this paper examines the practice of private film collecting, where individuals collect motion pictures, of various genres, on photochemical film stock. Film collecting has, in one form or another, been an ongoing activity since the origins of cinema and continues today in the post-film era of digital film production and preservation. It has been the shadow practice of institutional moving image archiving, offering new directions for the field – Henri Langlois’ creation of the Cinémathèque Française in 1935, Rick Prelinger’s focus on ephemeral films in the 1990s – while being seen as a source of piracy and uncontrollable cinephilia. With the end of film prints and the rise of a significantly more virulent form of illegal distribution through DVD and online piracy, film collectors have begun to go public as film preservationists. Individual collectors have received preservation grants from the National Film Preservation Foundation or crowdfunded digitization projects through Kickstarter; David Pearce’s recent report on the state of silent film preservation records how a small yet significant percentage of extant silent films exist only with private collectors.
+While being careful not to valorize a practice that at its extreme became secretive and possessive, this paper approaches film collectors as organic intellectuals for the purpose of reconsidering assumptions about the proper formation and implementation of institutional film archiving. It applies theories of the participatory archive from scholars such as Isto Huvila to the field of film archiving. How do film collectors, as a nonprofessional affinity group, practice film archiving differently than professional archivists? Should institutional film archives merely look at private film collectors as a source for rare prints or can the approaches of film collectors expand professional methods? For example, and though this is an ever changing target, what is the proper balance between access and preservation for archival films? How can institutional film archives balance an impulse to become more open to community involvement with a very understandable concern about protecting quickly degrading moving image artifacts? With the continuing challenge of limited budgets and a move by some large institutions to divest of analog holdings after digitization, does a more distributed form of archiving, where private individuals continue to protect media artifacts actually provide a more inclusive and sustainable model?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data sharing and reuse in the sciences has been a topic of growing attention over the last several years. This attention stems from changes that are occurring within scientific practices driven by the data deluge (Bell, Hey, &amp; Szalay, 2009; Hey &amp; Trefethen, 2003), fourth paradigm data-intensive science (Hey, Tansley, &amp; Tolle, 2009), and changes in journal and grant agency policies (National Institutes of Health, 2003; National Science Foundation, 2010). The sharing of data provides the ability to extract additional value from data, avoid reproducing research, enables researchers to ask new questions of existing data, and advance the state of science in general (Borgman, 2012). These potential opportunities of data sharing and reuse have placed pressure on the scientific community and funding agencies to provide infrastructure solutions for the changes occurring in scientific practice 
+To address the above, in 2007 the U.S. National Science Foundation announced a request for proposals for Sustainable Digital Data Preservation and Access Network Partners (DataNet). The DataNet Partners were created to develop long-term sustainable data infrastructures, interoperable data preservation and access, and cyberinfrastructure capabilities (National Science Foundation, 2006). The Data Observation Network for Earth (DataONE), one of the initial DataNet Partners, provides cyberinfrastructure for open, persistent, robust, and secure access to well-described and easily discovered earth science observational data” (DataONE, 2013). Scientists participating in DataONE are able to deposit, search, and reuse data available through the various DataONE tools. 
+The majority of studies specific to DataONE have addressed: the organization and the infrastructure, specific tools that the DataONE has created, and the DataONE community. Additionally, the majority of data sharing literature have addressed: general reasons why scientists should share data, journal and grant policies that influence data sharing, behavioral aspects that influence data sharing, and have been conducted in the biological sciences. As there have been few evaluations of the DataONE, it is timely to evaluate the cyberinfrastructure progress. Furthermore, as the DataONE focuses on earth science data, this provides an environment for studying data sharing within the earth sciences. The proposed research recognizes specific gaps in the literature: (1) the need to evaluate the DataONE cyberinfrastructure progress, (2) the need for studying how this infrastructure impacts data sharing, and (3) the need for studying sharing in the earth sciences.  
+From the above research problem, specific research questions have been developed including:  
+•	Within the DataONE environment, what infrastructure and interoperability factors facilitate or inhibit data sharing and reuse? 
+•	Within the DataONE – ONEMercury, which results are deemed relevant for reuse? What properties of these data and metadata facilitate or inhibit reuse? 
+In order to address the above, the researcher has proposed a mixed method approach including a review of transaction logs of the DataONE search interface – ONEMercury, a quasi-experimental study, a survey of the DataONE community asking them about their sharing and reuse activities, and follow up intensive interviews.  This paper presentation will provide an overview of the research problem, research questions, methodology and proposed time-line for the researcher’s planned dissertation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1919, Kafka’s parable, Before the Law, presented an analogy of the relationship between the individual and the state, which is characterised by an imbalance of power arising from what, in economics, after Akerlof’s 1970 paper The Market for Lemons: Quality Uncertainty and the Market Mechanism, is called ‘information asymmetry’, where one party in an interaction has more accurate or complete information than the other. In Kafka’s parable, ‘the man from the country’ allows himself to be denied access to the law by, firstly, legitimising the law by attempting to access it, secondly, legitimising the gatekeeper’s authority by accepting his prohibition to enter the open door on the basis of his claim to authority and suggestion that more powerful gatekeepers wait inside. The veracity of the gatekeeper’s authority and the reality of what is behind the door are unknown to the man. Evidence that the protection of information--the maintenance of information asymmetry--is a common means by which states, companies and individuals protect (or project) power over others is easily to be found in studies in the fields of sociology, political science and continental philosophy, inter alia. Histories of Freedom of Information in Britain are rich with observations of bureaucratic resistance to the release of information. In 2011, the Open Government Partnership (OGP) was established as a vehicle to support and promote transparent and accountable government internationally. The discourse around the OGP suggests a widespread interest in redressing the imbalance of power between governments and people, with a focus on service delivery and the protection of individual rights. The movement towards government openness has spurred new approaches to promoting government transparency and called into question the effectiveness of existing approaches, such as Freedom of Information. However, the persistence of the use of pre-existing secrecy and security measures has not been examined in this context. Despite the high profile of the openness movement, very little attention has been given to the laws, policies and practices that continue to be used to restrict access to information, for instance Official Secrets legislation, the Lord Chancellor’s Security and Intelligence Instrument, the Defence Notice (D-Notice) system (official requests not to publish or broadcast on matters of national security), protective marking policies, and established practices on the closure of government files (such as the 30 year rule). These impediments to access are unknown to most people seeking information from government. In what ways are they still used to limit access to information and how effective are Freedom of Information and other openness measures while these impediments exist? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although extensive work has been undertaken at national and international levels addressing the role of archives and recordkeeping in tribunals and reconciliation efforts in the aftermath of wars and other violent conflicts, little research within the archival field itself addresses or seeks to understand the ongoing impact of archives and recordkeeping on the immediate lives of individuals and communities seeking to recover and establish transparency after such conflicts. Nor has research looked at any specific implications there might be for records, recordkeeping and archives in regions historically dominated by or recovering from ethnically and religiously oriented divisions and strife, and how these might manifest themselves within records, metadata and recordkeeping practices. My research addresses these lacks, examining the agency and affect of records and archives on individual lives in Croatia (and by extension, in the diaspora of those who left the region) in the aftermath of the Yugoslav Wars. It takes Akhil Gupta’s theory of structural violence and extends it to situations in which bureaucratic recordkeeping perpetrates violence in situations of ethnic and religious divisions, often long after any physical conflict has ceased. In concert with Gupta’s ideas, it is hard to point to a single agent or system that perpetuates structural violence precisely because it is systemic. Perhaps more important in terms of mitigating it, the structural violence can also be transparent to those who are not its victims.  
+This paper will report on ethnographic and archival components of this research that are exploring: 
+•	the effects of records, recordkeeping, recordkeeping metadata and archives on people’s daily lives 
+• how people feel about records and recordkeeping processes 
+•	the “stories” people tell about records:  
+o	Are there common themes and tropes?  
+o	Are there certain kinds of records that are particularly central to these stories? 
+•	how people react to the classifications and assumptions imposed by records  
+•	are people aware of “codes” embedded in records as they are in social relations? If so, do they overtly read for, or subconsciously respond to them? 
+•	what, if any contact have these individuals had with archives? What feelings or reactions did such contact engender? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the field of archival studies, there has been growth in the literature related to born-digital archiving. Notable informational and educational resources include the “AIMS Born-Digital Collections” report, SAA’s Digital Archives Specialist (DAS) curriculum and the BitCurator project.  One commonality shared by these projects is an emphasis on donation-based collecting, where an archives or special collection needs to confront obsolete born-digital media or file formats included with a donation.  Although this problem too confronts institutional archives, it is only a small facet of the entire born digital archiving challenge.  This paper will explore the challenges to born-digital institutional archiving through the case study of a major international art museum.   
+Born-digital institutional digital archiving refers to the task of selecting, preserving, and providing access to the born-digital documentation created by an institution with historic and legal value.  In this case study, the researcher studied the born-digital archiving practices of a major international art museum headquartered in New York from September 2013 through January 2014 with the goal of helping them plan for a born digital archives.  The researcher studied the digital record keeping practices at the institution using three data sources: 
+1)	Staff: The researcher interviewed staff in 26 departments with 81 individuals attending an interview session.  During these interviews, he asked questions related to the locations and formats of electronic records with permanent value, which can be identified using the institution’s records retention schedule. 
+2)	Network File Storage: The researcher used the tool TreeSize to study the types of files and the age of files stored in departmental network share drives. 
+3)	Media in Archival Storage: The archives contains approximately 7,000 cubic feet of paper records, with some media such as floppy disks contained within these boxes.  He searched processed and unprocessed collections using inventories and finding aids available. 
+From studying these three sources of born-digital records, the researcher identified a number of challenges to institutional born-digital archiving.  A small selection of these challenges is outlined below: 
+1.	Digital records are stored primarily on network file storage.  Staff generally do not transfer electronic records to the archives because of lack of established procedures, workflows or infrastructures for doing so.   
+2.	Because electronic records do not occupy valuable physical workspace, staff have little motivation to identify records for permanent retention based on the departmental records retention schedule.   
+3.	Some departments with extensive collections of older records view these collections as “archives” of their department’s work, and exhibit a somewhat proprietary attachment to them.  However, they are not sure if they can be accessed because they may originate in obsolete file formats.   
+4.	Many departments have records in obsolete file formats (e.g., WordPerfect, Quark XPress).  However, since these files are rarely if ever referenced and are not barriers to completing work, this issue is not a priority for any department.  
+5.	Additional challenges related to unexpected file formats, removable media, email, social media, cloud services, web archives, and specialized database software will be discussed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper I seek to address the problems of the technological challenges in the preservation of digital documents. As an answer I draw attention to the need for digital heritage preservation—that is, preservation of the objects, documentation, and knowledge that make up the digital infrastructure that has been conventionally presented as so difficult to preserve. I will argue that focus on preserving digitallyencoded objects without attention to preserving their context of creation implies a considerable degree of blindness to the fact that digital technology is a cultural phenomenon, too. If we assume that we can preserve other cultural manifestations, there is no reason why we cannot preserve digital technology, and thereby be enabled to preserve the objects that are supported by digital technology, as well, much as the preservation of ancient woodworking tools enables us to more fully understand the carvings made with them, or as the rediscovery of ancient paint formulations assists us in preserving works of art.  
+I will discuss three aspects of this suggestion. I question the thinking that considers manufactured objects as unworthy of preservation by discussing the culture of creation around engineered and manufactured objects. I question the refusal to recognize a literate tradition of technological documentation as a literature by exploring the rhetoric and poetics of technology documentation. I question the rejection of the tacit knowledge of computer engineers as less important than craft skills or oral tradition by discussing the craft performance of trained engineers. Recognition of digital heritage preservation as itself a cultural phenomenon, characterized by its own mode of production and trajectory of development, can make a significant difference in the preservation of digital documents—and especially of their contexts of origin—over time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are considerable interoperability challenges for archival systems that need to endure through time and space, providing consistent and complete evidential access to archive materials (Evans, McKemmish, &amp; Reed, 2009).  Addressing the interoperability of archival systems within a socially, politically, disciplinary, and technically heterogeneous, divided and contested landscape has been identified as a societal grand challenge of our age (Gilliland &amp; McKemmish, 2012).  
+From the earliest days of the World Wide Web, the potential for interoperable archival systems has been recognised (Sherratt, 1996).  More recently, this concept has been refined and articulated as a distributed Archival Commons, comprising a federated network of archives with the generation and association of “links between objects using accepted Web standards”.  Such a space would “allow users to engage with archival materials as they pursue their own needs regardless of repository or institution” (Anderson &amp; Allen, 2009).  This interoperability has been identified as a core principle that should be upheld by public domain archival information services (McCarthy &amp; Evans, 2012). 
+Previous Masters-level research investigated a web-based API for archival system interoperability in the context of the Australian Series System, based upon a standard metadata schema of entities, relationships, and elements, together with an ontological resolution mechanism. This research exposed areas in which conceptual and representational recordkeeping and archival standards could be improved, particularly where they have been conceived for ensuring compliance at the expense of encouraging interoperability. From an organisational perspective, there are structural and budgetary barriers to progressing interoperability initiatives for community access. 
+Moving forward, a wide-ranging investigation of archival systems interoperability, from theoretical, ontological, and practical perspectives, can be framed as a number of research questions – some of which are: 
+•	What standard metadata schema is necessary and sufficient to support community access to	archives? How should the reference model API be evolved over time?  	 
+•	How should relationships and events be modelled in an interoperable manner? How is the provenance of assertions (e.g. about relationships and events) from difference sources to be represented and managed? 
+•	How should traceability and reproducibility be achieved in the meshing of archival data from multiple sources?  
+•	How should authentication and authorisation be modelled and managed within interoperable archival systems, particularly with respect to access rights that may change over space and time.  
+•	What are the implications for born-digital records for archival systems interoperability? What does mediated co-creation of records mean for identity and evidentiality. 
+•	What are the requirements for read/write interoperability in order to support participative archives activities for example, tagging, annotation, and contribution of archive material? 
+•	What user interfaces will support appropriate mental models for community discovery and access of archival records? Similarly, what interfaces would be useful for archive metadata diagnostics? 
+•	What is the path (or paths) that an institution should follow to fully participate in federated archives in terms of achieving technical, organisational, and social levels of interoperability?  
+This paper will identify and expand on these questions and discuss research approaches that may be taken to begin to address them. </t>
+  </si>
+  <si>
+    <t>The poster that I would like to design will present my research in its early stages. My experience with archives both professionally and personally has centred on Indigenous Australian records.
+My PhD research ‘Visualising Country: Archiving Virtual 3D Models’ is attached to the Monash Country Lines Archive (MCLA) which assists Indigenous Australian communities in the animation of stories that combine their history, knowledge, poetry, songs, performance and language to provide material for intergenerational knowledge sharing and learning. This is achieved through the use of world-class 3D animation to assist the sharing and preservation of knowledge and stories.
+Throughout the MCLA project both the MCLA team and community have expressed concern about the preservation and future access of the material not used in the final animation.
+The aim of my research is to design and develop an online interactive archive to enable Indigenous communities to access and use 3D models of Australian landscapes (terrains, trees and vertebrate fauna) to create virtual cultural worlds that: 1. Is intergenerational in its appeal and usability 2. Easily customised to individual community needs 3. Upholds archival principles both Archival Science and Indigenous community.
+While the research is specifically aimed at the access and use of the 3D models, dependent on the findings of what the partner communities want from the archive, the system may need to be flexible enough to include other material associated with the partnerships.
+I hope to examine what are the specific cultural, social, functional and technical requirements for an online archive of virtual 3D models of Australian terrain, fauna and flora. In doing so, explore the concept of a sustainable living archive that reflects community protocols and archival principles through the use of innovative information technologies.
+My research will be adopting systems development as a research method within a participatory action research framework. Systems Development as a research method in an action research framework allows me to explore the interface between theoretical concepts and their practical realisation, including the interplay with community needs and information technology capabilities.
+I hope to demonstrate my passion for archives and commitment to respectful research.</t>
+  </si>
 </sst>
 </file>
 
@@ -1467,14 +1472,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1960,21 +1964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="21.69921875" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="54.19921875" customWidth="1"/>
-    <col min="7" max="8" width="21.69921875" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2014001</v>
       </c>
@@ -2029,10 +2033,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2014002</v>
       </c>
@@ -2052,16 +2056,16 @@
         <v>225</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2014003</v>
       </c>
@@ -2081,16 +2085,16 @@
         <v>226</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2014004</v>
       </c>
@@ -2107,19 +2111,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2014005</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
@@ -2139,16 +2143,16 @@
         <v>227</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2014006</v>
       </c>
@@ -2168,16 +2172,16 @@
         <v>228</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2014007</v>
       </c>
@@ -2197,16 +2201,16 @@
         <v>229</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2014008</v>
       </c>
@@ -2226,16 +2230,16 @@
         <v>205</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2014009</v>
       </c>
@@ -2255,16 +2259,16 @@
         <v>230</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2014010</v>
       </c>
@@ -2284,16 +2288,16 @@
         <v>231</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2014011</v>
       </c>
@@ -2313,16 +2317,16 @@
         <v>232</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2014012</v>
       </c>
@@ -2342,16 +2346,16 @@
         <v>233</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2014013</v>
       </c>
@@ -2371,24 +2375,24 @@
         <v>234</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2014014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -2406,10 +2410,10 @@
         <v>208</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2014015</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -2429,16 +2433,16 @@
         <v>236</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2014016</v>
       </c>
@@ -2455,19 +2459,19 @@
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>237</v>
+        <v>388</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2014017</v>
       </c>
@@ -2484,19 +2488,19 @@
         <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2014018</v>
       </c>
@@ -2513,19 +2517,19 @@
         <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2014019</v>
       </c>
@@ -2542,19 +2546,19 @@
         <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="343.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2014020</v>
       </c>
@@ -2574,16 +2578,16 @@
         <v>206</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2014021</v>
       </c>
@@ -2600,19 +2604,19 @@
         <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2014022</v>
       </c>
@@ -2629,19 +2633,19 @@
         <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2014023</v>
       </c>
@@ -2658,19 +2662,19 @@
         <v>72</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2014024</v>
       </c>
@@ -2687,19 +2691,19 @@
         <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2014025</v>
       </c>
@@ -2716,19 +2720,19 @@
         <v>76</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2014026</v>
       </c>
@@ -2745,19 +2749,19 @@
         <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>244</v>
+        <v>390</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2014027</v>
       </c>
@@ -2774,19 +2778,19 @@
         <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2014028</v>
       </c>
@@ -2803,19 +2807,19 @@
         <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2014029</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>191</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>87</v>
@@ -2841,10 +2845,10 @@
         <v>9</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2014030</v>
       </c>
@@ -2861,19 +2865,19 @@
         <v>90</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2014031</v>
       </c>
@@ -2890,19 +2894,19 @@
         <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2014032</v>
       </c>
@@ -2919,19 +2923,19 @@
         <v>95</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2014033</v>
       </c>
@@ -2948,19 +2952,19 @@
         <v>98</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2014034</v>
       </c>
@@ -2977,19 +2981,19 @@
         <v>101</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2014035</v>
       </c>
@@ -3006,19 +3010,19 @@
         <v>104</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2014036</v>
       </c>
@@ -3035,19 +3039,19 @@
         <v>108</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2014037</v>
       </c>
@@ -3064,19 +3068,19 @@
         <v>110</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2014038</v>
       </c>
@@ -3093,19 +3097,19 @@
         <v>112</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2014039</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>113</v>
@@ -3131,10 +3135,10 @@
         <v>208</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2014040</v>
       </c>
@@ -3151,19 +3155,19 @@
         <v>118</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2014041</v>
       </c>
@@ -3180,19 +3184,19 @@
         <v>121</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2014042</v>
       </c>
@@ -3209,19 +3213,19 @@
         <v>123</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2014043</v>
       </c>
@@ -3238,19 +3242,19 @@
         <v>127</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2014044</v>
       </c>
@@ -3267,19 +3271,19 @@
         <v>129</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2014045</v>
       </c>
@@ -3296,19 +3300,19 @@
         <v>131</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2014046</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>9</v>
@@ -3334,10 +3338,10 @@
         <v>9</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2014047</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>137</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>113</v>
@@ -3363,10 +3367,10 @@
         <v>208</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2014048</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>139</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>113</v>
@@ -3392,27 +3396,27 @@
         <v>208</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2014049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>194</v>
@@ -3421,10 +3425,10 @@
         <v>208</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2014050</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>141</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>113</v>
@@ -3450,10 +3454,10 @@
         <v>208</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2014051</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>142</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>113</v>
@@ -3479,10 +3483,10 @@
         <v>208</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2014052</v>
       </c>
@@ -3499,19 +3503,19 @@
         <v>145</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2014053</v>
       </c>
@@ -3528,19 +3532,19 @@
         <v>147</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2014054</v>
       </c>
@@ -3557,19 +3561,19 @@
         <v>149</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2014055</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>150</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>113</v>
@@ -3586,7 +3590,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>113</v>
@@ -3595,10 +3599,10 @@
         <v>208</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2014056</v>
       </c>
@@ -3615,19 +3619,19 @@
         <v>154</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2014057</v>
       </c>
@@ -3644,19 +3648,19 @@
         <v>156</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2014058</v>
       </c>
@@ -3673,19 +3677,19 @@
         <v>158</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2014059</v>
       </c>
@@ -3702,19 +3706,19 @@
         <v>162</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2014060</v>
       </c>
@@ -3731,19 +3735,19 @@
         <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2014061</v>
       </c>
@@ -3760,19 +3764,19 @@
         <v>166</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2014062</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>168</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>9</v>
@@ -3798,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2014063</v>
       </c>
@@ -3818,19 +3822,19 @@
         <v>171</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2014064</v>
       </c>
@@ -3847,19 +3851,19 @@
         <v>173</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2014065</v>
       </c>
@@ -3876,19 +3880,19 @@
         <v>175</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2014066</v>
       </c>
@@ -3905,19 +3909,19 @@
         <v>178</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2014067</v>
       </c>
@@ -3934,19 +3938,19 @@
         <v>180</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2014068</v>
       </c>
@@ -3963,19 +3967,19 @@
         <v>183</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2014069</v>
       </c>
@@ -3992,19 +3996,19 @@
         <v>186</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2014070</v>
       </c>
@@ -4021,19 +4025,19 @@
         <v>188</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2014071</v>
       </c>
@@ -4050,19 +4054,19 @@
         <v>190</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2014072</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>193</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>113</v>
@@ -4088,10 +4092,10 @@
         <v>208</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2014073</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>214</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>194</v>
@@ -4108,7 +4112,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>194</v>
@@ -4117,18 +4121,18 @@
         <v>208</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2014074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>194</v>
@@ -4137,7 +4141,7 @@
         <v>196</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>194</v>
@@ -4146,10 +4150,10 @@
         <v>208</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2014075</v>
       </c>
@@ -4166,19 +4170,19 @@
         <v>200</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2014076</v>
       </c>
@@ -4195,19 +4199,19 @@
         <v>202</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2014077</v>
       </c>
@@ -4218,13 +4222,13 @@
         <v>125</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>9</v>
@@ -4233,706 +4237,706 @@
         <v>9</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2014078</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2014079</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2014080</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2014081</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>2014082</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2014083</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>2014084</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2014085</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2014086</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>2014087</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>2014088</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>2014089</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2014090</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>2014091</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>2014092</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>2014093</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>2014094</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>2014095</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>2014096</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2014097</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2014098</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2014099</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2014100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2014101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>208</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>2014102</v>
       </c>
@@ -4946,10 +4950,10 @@
         <v>192</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>113</v>
@@ -4958,11 +4962,16 @@
         <v>9</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>